--- a/mathTransformed/HMPSTT_(2018-10-08)_53_4.xlsx
+++ b/mathTransformed/HMPSTT_(2018-10-08)_53_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,6 +441,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -471,7 +476,8 @@
           <t>Names</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
@@ -500,6 +506,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>G J C H S B H Road</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -524,6 +535,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>G J C HuliyarudurgaKunigal</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -551,6 +567,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>G P U C High School HonnavalliTiptur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -578,6 +599,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>G J V Thirumani Pavagada</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -605,6 +631,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>G H S BukkapatnaKortagere</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -632,6 +663,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>G H S DuddanahalliKoratagere</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -659,6 +695,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>G J C Pavagada</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -686,6 +727,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>Assistant Master G H S BaraguruC N Halli</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -713,6 +759,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>Bapuji High School Bevnahalli</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>C N Halli Tumkur</t>
         </is>
       </c>
@@ -740,6 +791,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>S S A H S Kunigal</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -767,6 +823,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>G H S GangasagaraPavagada</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -794,6 +855,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>G H S IdagurGubbi</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -815,6 +881,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>G G J C (HS) Sira</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -842,6 +913,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>G H S GodrahalliKoratagere</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -869,6 +945,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>G H S Kyathasandra</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -896,6 +977,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>Sri Kalidasa High School BidareGubbi</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -923,6 +1009,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>G J C Nagasandra(K G Temple) Gubbi</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -950,6 +1041,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>G H S AmmanaghattaGubbi</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -975,7 +1071,8 @@
           <t>KANTHARAJA H</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
         <is>
           <t>Sree Lokendra High School Tumkur</t>
         </is>
@@ -1004,6 +1101,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>G J C ThirumaniPavagada</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -1031,6 +1133,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>Sri K N Rural High School Ranganahalli Gate Gubbi</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1058,6 +1165,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>G G J C Tiptur</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1085,6 +1197,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>Sri Uma Pragathi High School Kyathsandra</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1112,6 +1229,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>G J C GuligenahalliSira</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -1139,6 +1261,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>G H S VenkatapuraPavagada</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1166,6 +1293,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>S L H S C NandihalliGubbi</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1193,6 +1325,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>G J C (HS) Sira</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -1220,6 +1357,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>Assistant Master G U H S HuliyarC N Halli</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1247,6 +1389,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>G J C (H S) I K ColonyKoratagere</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -1274,6 +1421,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>S G C P U C Hebbur</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1301,6 +1453,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>G G J C Gubbi</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1328,6 +1485,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>Kalidasa Junior College</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1355,6 +1517,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>Sri Sai Gurukula Residential School Honnali</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>Davangere</t>
         </is>
       </c>
@@ -1379,6 +1546,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>G H S YalekadakaluKunigal</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1403,6 +1575,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>G H S GowdanakatteTiptur</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1430,6 +1607,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>G J C (H S ) Sirivara</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1457,6 +1639,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>SSRHS Pura Turuvekere</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1484,6 +1671,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>G J C NedasaleKunigal</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1509,7 +1701,8 @@
           <t>RAMAPRAKASH T A</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
         <is>
           <t>Sri Basaveswara High School Hosakere</t>
         </is>
@@ -1527,6 +1720,11 @@
         </is>
       </c>
       <c r="F43" t="inlineStr">
+        <is>
+          <t>Gubbi</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
         <is>
           <t>Tumkur</t>
         </is>
@@ -1552,6 +1750,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>S S R H S Gangalgonte</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -1576,6 +1779,11 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>G H S ArasikerePavagada</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -1603,6 +1811,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>G H S YelerampuraKoratagere</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -1630,6 +1843,11 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>G J C Sira</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -1654,6 +1872,11 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>G J C Turuvekere</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1680,7 +1903,8 @@
           <t>SHILPA SHREE T C</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
         <is>
           <t>Tumkur</t>
         </is>
@@ -1709,6 +1933,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>G H S Ankasandra Gubbi</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1736,6 +1965,11 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>M G M H S ArasikerePavagadaMadhugiri</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1763,6 +1997,11 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>G H S HonnashettihalliGubbi</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1790,6 +2029,11 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>G H S Shivanagere</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -1817,6 +2061,11 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>G H S Thondoti</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -1841,6 +2090,11 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
+          <t>Sri Swamy Vivekananda High School Kuppur</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>C N Halli Tumkur</t>
         </is>
       </c>
@@ -1868,6 +2122,11 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
+          <t>Sri Siddhartha Rural High School</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1894,6 +2153,11 @@
         </is>
       </c>
       <c r="F57" t="inlineStr">
+        <is>
+          <t>Dr. Ambedkar Rural High SchoolAralaguppeTiptur</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
         <is>
           <t>Tumkur</t>
         </is>

--- a/mathTransformed/HMPSTT_(2018-10-08)_53_4.xlsx
+++ b/mathTransformed/HMPSTT_(2018-10-08)_53_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +476,6 @@
           <t>Names</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
           <t>Name</t>
@@ -511,7 +510,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -540,7 +539,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -572,7 +571,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -604,7 +603,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -636,7 +635,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -668,7 +667,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -700,7 +699,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -732,7 +731,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -796,7 +795,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -828,7 +827,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -860,7 +859,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -886,7 +885,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -918,7 +917,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -950,7 +949,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -982,7 +981,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1014,7 +1013,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1045,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1070,6 @@
           <t>KANTHARAJA H</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
           <t>Sree Lokendra High School Tumkur</t>
@@ -1106,7 +1104,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1138,7 +1136,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1170,7 +1168,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1202,7 +1200,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1234,7 +1232,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1264,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1298,7 +1296,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1328,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1362,7 +1360,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1394,7 +1392,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1426,7 +1424,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1458,7 +1456,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1490,7 +1488,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1549,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1580,7 +1578,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1610,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1644,7 +1642,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1676,7 +1674,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1699,6 @@
           <t>RAMAPRAKASH T A</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
           <t>Sri Basaveswara High School Hosakere</t>
@@ -1726,7 +1723,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1752,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1784,7 +1781,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1816,7 +1813,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1848,7 +1845,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1877,7 +1874,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1903,10 +1900,9 @@
           <t>SHILPA SHREE T C</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1934,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1970,7 +1966,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -2002,7 +1998,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -2034,7 +2030,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -2066,7 +2062,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -2127,7 +2123,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -2159,7 +2155,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>

--- a/mathTransformed/HMPSTT_(2018-10-08)_53_4.xlsx
+++ b/mathTransformed/HMPSTT_(2018-10-08)_53_4.xlsx
@@ -763,7 +763,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>C N Halli Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Sree Lokendra High School Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Sri Basaveswara High School Hosakere</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>C N Halli Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
